--- a/data/Behavioral/description/WHODAS_SR.xlsx
+++ b/data/Behavioral/description/WHODAS_SR.xlsx
@@ -1,24 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28410"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27629"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/data/Research/Healthy Brain Network/Data Sharing/Data Dictionaries/Public Data Dictionaries/all_data_dicts_09142017/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3400" yWindow="460" windowWidth="25360" windowHeight="15280" tabRatio="500"/>
+    <workbookView xWindow="3400" yWindow="300" windowWidth="25360" windowHeight="15280" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -86,6 +78,9 @@
     <t>Overall, in the past 30 days, how many days were these difficulties present?</t>
   </si>
   <si>
+    <t xml:space="preserve"> In the past 30 days, for how many days were you totally unable to carry out your usual activities or work because of any health condition?</t>
+  </si>
+  <si>
     <t>In the past 30 days, not counting the days that you were totally unable, for how many days did you cut back or reduce your usual activities or work because of any health condition?</t>
   </si>
   <si>
@@ -154,9 +149,6 @@
   </si>
   <si>
     <t>WHO Disability Assessment Schedule (WHODAS) Self-Report</t>
-  </si>
-  <si>
-    <t>In the past 30 days, for how many days were you totally unable to carry out your usual activities or work because of any health condition?</t>
   </si>
 </sst>
 </file>
@@ -314,11 +306,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -646,24 +633,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="48.83203125" customWidth="1"/>
     <col min="2" max="2" width="18.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="2" customFormat="1" ht="20">
       <c r="A1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -680,263 +667,268 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="75">
       <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="75">
       <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="75">
       <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="75">
       <c r="A6" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="75">
       <c r="A7" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="75">
       <c r="A8" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="75">
       <c r="A9" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="75">
       <c r="A10" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="75">
       <c r="A11" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="75">
       <c r="A12" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="75">
       <c r="A13" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="75">
       <c r="A14" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30">
       <c r="A15" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="45">
       <c r="A16" s="6" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="65" thickBot="1" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="61" thickBot="1">
       <c r="A17" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>